--- a/starter/src/main/resources/static/excel/kbase_auto_reply_keyword.xlsx
+++ b/starter/src/main/resources/static/excel/kbase_auto_reply_keyword.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31360" windowHeight="10560"/>
+    <workbookView windowHeight="11840"/>
   </bookViews>
   <sheets>
     <sheet name="自动回复" sheetId="1" r:id="rId1"/>
@@ -27,30 +27,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>分类(必填)</t>
   </si>
   <si>
+    <t>类型(五种类型：TEXT、IMAGE、VIDEO、AUDIO、FILE)</t>
+  </si>
+  <si>
     <t>关键词</t>
   </si>
   <si>
     <t>回复内容</t>
   </si>
   <si>
-    <t>匹配模式</t>
+    <t>匹配模式(EXACT、FUZZY、REGULAR)</t>
   </si>
   <si>
     <t>分类1</t>
   </si>
   <si>
-    <t>时候[and]发货|啥时[and]发货|多久[and]发货|今天[and]发货|尽快[and]发货</t>
-  </si>
-  <si>
-    <t>您好亲，我们发货是按订单顺序的发货哦。您着急的话我们会优先帮您安排的，不用担心哦。|您这边着急是吗，我这边备注一下。帮您先安排可以吗亲|懂了，您这边比较急是吗，我们先帮您安排可以吗亲。</t>
-  </si>
-  <si>
-    <t>模糊匹配</t>
+    <t>TEXT</t>
   </si>
   <si>
     <t>你好|您好|在吗|在不|在么|在？|在?</t>
@@ -59,6 +56,9 @@
     <t>您好，在的亲|亲，我在的呢|在的哦亲，需要点什么呢|在哦亲，有什么可以帮您的吗?</t>
   </si>
   <si>
+    <t>FUZZY</t>
+  </si>
+  <si>
     <t>好呢|好的|好吧|行的|可以哦</t>
   </si>
   <si>
@@ -71,33 +71,15 @@
     <t>不客气的哦亲|没事的呢，很荣幸能帮您|不用谢哦亲，应该的呢|不客气哦，非常荣幸为您服务哦。</t>
   </si>
   <si>
-    <t>什么[and]快递</t>
-  </si>
-  <si>
-    <t>您好，我们是随机安排的，一般来说可能根据地区稍有区别。放心时效都很快的哦。|亲，我们会根据您的地区选择最快时效的快递哦。您放心呢|亲，这个不用担心，我们会根据您的地区帮您安排运输最快速稳定的快递哦。</t>
-  </si>
-  <si>
     <t>分类2</t>
   </si>
   <si>
-    <t>退款[and]怎么办|怎么[and]退款|退款[and]流程|退款[and]操作</t>
-  </si>
-  <si>
-    <t>亲，退款的话需要您在订单详情里申请退款哦，我们会尽快为您处理的。|您好，退款流程是在订单详情中提交退款申请，提交后我们会第一时间审核处理。|亲爱的，关于退款，您可以直接在订单里操作申请退款，有任何问题我都在这里帮您。</t>
-  </si>
-  <si>
     <t>损坏|破损|有损|坏了</t>
   </si>
   <si>
     <t>亲，商品损坏了真的很抱歉。麻烦您提供一下损坏的照片，我们这边帮您处理一下。|很抱歉给您带来不便，亲可以发一下损坏部分的照片吗？我们会尽快为您解决。|哦不，听闻商品有损真是让人难过，您能否提供损坏的图片呢？我们好进行下一步处理。</t>
   </si>
   <si>
-    <t>没收到货|怎么还没到|包裹[and]没到|快递[and]没收到</t>
-  </si>
-  <si>
-    <t>亲，可能是快递延误了，请您稍等一下，我这边帮您查一查物流信息。|很抱歉让您久等了，让我立刻为您查询快递进度，请稍候。|亲，有时快递会有些许延迟，我帮您看看具体情况，马上回复您。</t>
-  </si>
-  <si>
     <t>优惠券|折扣|活动|促销</t>
   </si>
   <si>
@@ -117,30 +99,6 @@
   </si>
   <si>
     <t>亲，如果忘记密码，您可以尝试使用忘记密码功能来重置密码。具体操作是在登录页面选择忘记密码，按提示操作。|遇到登录问题，建议您先检查一下账号信息是否输入正确，如果忘记密码，可以通过忘记密码进行重置哦。|登录时遇到问题，不用担心，可以尝试重置密码或检查网络设置，如还有问题，随时联系我们。</t>
-  </si>
-  <si>
-    <t>产品质量怎么样|好用吗|耐用吗</t>
-  </si>
-  <si>
-    <t>我们的产品都是经过严格质量检验的，质量上乘，使用起来非常耐用且效果显著。|亲，我们的商品质量保证，收到货后如果有任何不满意都可以联系我们哦。|我们的产品质量非常好，很多顾客反馈使用效果很好，您可以放心购买。</t>
-  </si>
-  <si>
-    <t>发票问题|需要发票|怎么开发票</t>
-  </si>
-  <si>
-    <t>亲，需要开具发票的话，在下单时可以选择开具发票，并按照提示填写相关信息。具体发票问题也可以联系客服解决。|关于发票，我们支持电子发票和纸质发票，下单时可以根据需求选择，有问题随时联系我们。|开发票您不用担心，下单后在订单备注里说明，或者直接联系客服都可以办理。</t>
-  </si>
-  <si>
-    <t>商品有货吗|库存情况|现货吗</t>
-  </si>
-  <si>
-    <t>亲，我们的商品都是有现货的，下单后会尽快为您发货。|目前库存充足，您可以放心下单，我们会及时处理您的订单。|商品都是现货供应，您可以直接下单，我们会立即为您安排发货。</t>
-  </si>
-  <si>
-    <t>颜色选择|有哪些颜色|颜色款式</t>
-  </si>
-  <si>
-    <t>亲，我们店铺的商品有多种颜色可选，具体颜色款式您可以在商品详情页查看。|每款商品都有多种颜色，您可以根据自己的喜好选择，详情页有展示哦。|关于颜色，我们提供了丰富的选择，您可以在商品页面查看所有可选的颜色哦。</t>
   </si>
 </sst>
 </file>
@@ -1139,21 +1097,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="25.1634615384615" customWidth="1"/>
-    <col min="2" max="2" width="73.875" customWidth="1"/>
-    <col min="3" max="3" width="152.240384615385" customWidth="1"/>
-    <col min="4" max="4" width="12.8173076923077" customWidth="1"/>
+    <col min="2" max="2" width="56.25" customWidth="1"/>
+    <col min="3" max="3" width="47.1153846153846" customWidth="1"/>
+    <col min="4" max="4" width="158.163461538462" customWidth="1"/>
+    <col min="5" max="5" width="43.9134615384615" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1166,215 +1125,127 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
+      <c r="E8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
